--- a/biology/Botanique/Oxytropis_halleri/Oxytropis_halleri.xlsx
+++ b/biology/Botanique/Oxytropis_halleri/Oxytropis_halleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Oxytropis de Haller (Oxytropis halleri) est une espèce de plantes herbacées de la famille des Fabaceae et de la sous-famille des Faboideae.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Plante haute de 5 à 15 cm aux feuilles composées, généralement imparipennées, de 17 à 23 folioles soyeuses. 
-Appareil reproducteur
-Floraison de juin à août. Fleurs violettes bleutées, disposées en grappe qui s'allonge lors de la floraison.
-Fruit en gousse de 15 à 20 mm.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante haute de 5 à 15 cm aux feuilles composées, généralement imparipennées, de 17 à 23 folioles soyeuses. 
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Subalpine à alpine, en France : sud des Alpes, Pyrénées centrales et orientales.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Floraison de juin à août. Fleurs violettes bleutées, disposées en grappe qui s'allonge lors de la floraison.
+Fruit en gousse de 15 à 20 mm.
 </t>
         </is>
       </c>
@@ -574,10 +595,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subalpine à alpine, en France : sud des Alpes, Pyrénées centrales et orientales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oxytropis_halleri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxytropis_halleri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses sèches, rocailleuses, éboulis.
 Sur les autres projets Wikimedia :
